--- a/Jogos_do_Dia/2024-04-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -196,12 +196,12 @@
     <t>Shandong Luneng</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
     <t>Daejeon Citizen</t>
   </si>
   <si>
-    <t>Suwon</t>
-  </si>
-  <si>
     <t>Tianjin Teda</t>
   </si>
   <si>
@@ -229,10 +229,10 @@
     <t>Nantong Zhiyun</t>
   </si>
   <si>
+    <t>FC Seoul</t>
+  </si>
+  <si>
     <t>Sangju Sangmu</t>
-  </si>
-  <si>
-    <t>FC Seoul</t>
   </si>
   <si>
     <t>Beijing Guoan</t>
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="K2">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="L2">
-        <v>9.199999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="M2">
         <v>1.3</v>
@@ -811,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="S2">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="T2">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -847,43 +847,43 @@
         <v>3.3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -906,76 +906,76 @@
         <v>71</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Z3">
         <v>1.75</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB3">
-        <v>1.13</v>
+        <v>2.01</v>
       </c>
       <c r="AC3">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AD3">
-        <v>2.39</v>
+        <v>3.19</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1037,76 +1037,76 @@
         <v>72</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
         <v>1.75</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>2.01</v>
+        <v>1.13</v>
       </c>
       <c r="AC4">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AD4">
-        <v>3.19</v>
+        <v>2.39</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>2.9</v>
       </c>
       <c r="J5">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="K5">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="M5">
         <v>1.38</v>
@@ -1204,10 +1204,10 @@
         <v>3.4</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U5">
         <v>1.65</v>
@@ -1308,13 +1308,13 @@
         <v>4.5</v>
       </c>
       <c r="J6">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="K6">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="M6">
         <v>1.33</v>
@@ -1335,10 +1335,10 @@
         <v>3.95</v>
       </c>
       <c r="S6">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="T6">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="U6">
         <v>1.67</v>
@@ -1371,43 +1371,43 @@
         <v>3.15</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1439,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="K7">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1466,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="T7">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -1502,43 +1502,43 @@
         <v>2.41</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1570,13 +1570,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L8">
-        <v>2.4</v>
+        <v>2.93</v>
       </c>
       <c r="M8">
         <v>1.36</v>
@@ -1597,10 +1597,10 @@
         <v>3.6</v>
       </c>
       <c r="S8">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="T8">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U8">
         <v>1.67</v>
@@ -1701,13 +1701,13 @@
         <v>3.2</v>
       </c>
       <c r="J9">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="M9">
         <v>1.42</v>
@@ -1728,7 +1728,7 @@
         <v>3.04</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T9">
         <v>1.73</v>
@@ -1832,13 +1832,13 @@
         <v>2.4</v>
       </c>
       <c r="J10">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="K10">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="M10">
         <v>1.3</v>
@@ -1859,10 +1859,10 @@
         <v>4.33</v>
       </c>
       <c r="S10">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="T10">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U10">
         <v>1.53</v>
@@ -1895,43 +1895,43 @@
         <v>2.76</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -1960,7 +1960,7 @@
         <v>1.95</v>
       </c>
       <c r="I11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1990,10 +1990,10 @@
         <v>2.75</v>
       </c>
       <c r="S11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T11">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2151,10 +2151,10 @@
         <v>1.56</v>
       </c>
       <c r="AC12">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AE12">
         <v>1.72</v>

--- a/Jogos_do_Dia/2024-04-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -196,12 +196,12 @@
     <t>Shandong Luneng</t>
   </si>
   <si>
+    <t>Daejeon Citizen</t>
+  </si>
+  <si>
     <t>Suwon</t>
   </si>
   <si>
-    <t>Daejeon Citizen</t>
-  </si>
-  <si>
     <t>Tianjin Teda</t>
   </si>
   <si>
@@ -229,10 +229,10 @@
     <t>Nantong Zhiyun</t>
   </si>
   <si>
+    <t>Sangju Sangmu</t>
+  </si>
+  <si>
     <t>FC Seoul</t>
-  </si>
-  <si>
-    <t>Sangju Sangmu</t>
   </si>
   <si>
     <t>Beijing Guoan</t>
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="K2">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>8.85</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>1.3</v>
@@ -811,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="S2">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="T2">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -906,22 +906,22 @@
         <v>71</v>
       </c>
       <c r="G3">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="H3">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="I3">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="J3">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L3">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -942,10 +942,10 @@
         <v>2.75</v>
       </c>
       <c r="S3">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U3">
         <v>1.91</v>
@@ -954,67 +954,67 @@
         <v>1.8</v>
       </c>
       <c r="W3">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Y3">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
         <v>1.75</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>2.01</v>
+        <v>1.13</v>
       </c>
       <c r="AC3">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AD3">
-        <v>3.19</v>
+        <v>2.39</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1037,22 +1037,22 @@
         <v>72</v>
       </c>
       <c r="G4">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="H4">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I4">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L4">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="M4">
         <v>1.5</v>
@@ -1073,10 +1073,10 @@
         <v>2.75</v>
       </c>
       <c r="S4">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="U4">
         <v>1.91</v>
@@ -1085,67 +1085,67 @@
         <v>1.8</v>
       </c>
       <c r="W4">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X4">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y4">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Z4">
         <v>1.75</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB4">
-        <v>1.13</v>
+        <v>2.01</v>
       </c>
       <c r="AC4">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AD4">
-        <v>2.39</v>
+        <v>3.19</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1177,13 +1177,13 @@
         <v>2.9</v>
       </c>
       <c r="J5">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K5">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L5">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="M5">
         <v>1.38</v>
@@ -1204,10 +1204,10 @@
         <v>3.4</v>
       </c>
       <c r="S5">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
         <v>1.65</v>
@@ -1308,13 +1308,13 @@
         <v>4.5</v>
       </c>
       <c r="J6">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L6">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
         <v>1.33</v>
@@ -1335,10 +1335,10 @@
         <v>3.95</v>
       </c>
       <c r="S6">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="T6">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U6">
         <v>1.67</v>
@@ -1439,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1466,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="T7">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -1570,13 +1570,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.23</v>
+        <v>2.75</v>
       </c>
       <c r="K8">
         <v>3.25</v>
       </c>
       <c r="L8">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="M8">
         <v>1.36</v>
@@ -1597,10 +1597,10 @@
         <v>3.6</v>
       </c>
       <c r="S8">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
         <v>1.67</v>
@@ -1701,13 +1701,13 @@
         <v>3.2</v>
       </c>
       <c r="J9">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="K9">
         <v>3.3</v>
       </c>
       <c r="L9">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="M9">
         <v>1.42</v>
@@ -1728,10 +1728,10 @@
         <v>3.04</v>
       </c>
       <c r="S9">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U9">
         <v>1.78</v>
@@ -1832,13 +1832,13 @@
         <v>2.4</v>
       </c>
       <c r="J10">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L10">
-        <v>2.31</v>
+        <v>1.75</v>
       </c>
       <c r="M10">
         <v>1.3</v>
@@ -1859,10 +1859,10 @@
         <v>4.33</v>
       </c>
       <c r="S10">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T10">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="U10">
         <v>1.53</v>
@@ -1957,10 +1957,10 @@
         <v>3.75</v>
       </c>
       <c r="H11">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1996,10 +1996,10 @@
         <v>1.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W11">
         <v>1.52</v>
